--- a/SupData2.EbST108.xlsx
+++ b/SupData2.EbST108.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/dmitriy_li_uts_edu_au/Documents/tLST/4Git/sups120325/sups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="816" documentId="8_{92BC99CB-390A-402C-9FD1-876196E55FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEC4EC9D-8A7F-43D8-A55D-BC781F966A69}"/>
+  <xr:revisionPtr revIDLastSave="834" documentId="8_{92BC99CB-390A-402C-9FD1-876196E55FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D32D9319-4143-45A8-BDC3-C30C150BC39D}"/>
   <bookViews>
-    <workbookView xWindow="9105" yWindow="-11130" windowWidth="18945" windowHeight="10290" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tLST" sheetId="8" r:id="rId1"/>
-    <sheet name="IntI1" sheetId="10" r:id="rId2"/>
-    <sheet name="IncF" sheetId="11" r:id="rId3"/>
-    <sheet name="Source" sheetId="12" r:id="rId4"/>
-    <sheet name="Country" sheetId="13" r:id="rId5"/>
-    <sheet name="AMR" sheetId="14" r:id="rId6"/>
-    <sheet name="VAG" sheetId="15" r:id="rId7"/>
-    <sheet name="Phylogenetic tree" sheetId="16" r:id="rId8"/>
+    <sheet name="A) LST" sheetId="8" r:id="rId1"/>
+    <sheet name="B) IntI1" sheetId="10" r:id="rId2"/>
+    <sheet name="C) IncF" sheetId="11" r:id="rId3"/>
+    <sheet name="D) Source" sheetId="12" r:id="rId4"/>
+    <sheet name="E) Country" sheetId="13" r:id="rId5"/>
+    <sheet name="F) AMR" sheetId="14" r:id="rId6"/>
+    <sheet name="G) VAG" sheetId="15" r:id="rId7"/>
+    <sheet name="H) Phylogenetic tree" sheetId="16" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="73">
   <si>
     <t>tLST1_AW1.7</t>
   </si>
@@ -85,15 +85,6 @@
   </si>
   <si>
     <t>GCF_031432835.1</t>
-  </si>
-  <si>
-    <t>#000000</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>Isolate</t>
   </si>
   <si>
     <t>Phenicol/Quinolone</t>
@@ -926,10 +917,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1229,21 +1216,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77027B7-927D-4970-BEF7-491EFE4CB429}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1251,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1259,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1267,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1275,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1283,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1299,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1315,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1323,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1331,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1339,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1354,66 +1344,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A9FA66-AFDE-448A-AA4A-B577B8E41A27}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
         <v>1015</v>
       </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>799</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1425,34 +1386,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBE3ECC-5D67-4111-AA75-AFC6B93A2DDA}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:K1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.69140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1464,133 +1426,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1200D340-ED99-488D-A23E-AB9833A592E5}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1602,141 +1562,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B264E480-1293-4306-8322-2E2439CFC1CF}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1748,272 +1706,273 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851ED4A2-8317-4015-B5CC-F7F5B7537E20}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>57</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
         <v>63</v>
       </c>
-      <c r="G16" t="s">
+      <c r="M16" t="s">
         <v>64</v>
       </c>
-      <c r="J16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2025,200 +1984,201 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7251299C-C6C9-4ED7-8219-BF2F0B88AF52}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2230,15 +2190,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B764D564-6B6A-4E1B-B6DC-24512564D72E}">
   <dimension ref="A24:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2253,7 +2211,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2268,7 +2226,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H28" s="3"/>
     </row>
   </sheetData>
@@ -2281,11 +2239,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="45063566-8adc-4d08-8edf-5c9261df0dbb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2522,27 +2481,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="45063566-8adc-4d08-8edf-5c9261df0dbb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD819BBA-F06F-4228-BE55-967EAE562949}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4290E48F-9358-41B2-97EA-E74AC621B0EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="45063566-8adc-4d08-8edf-5c9261df0dbb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="58eb24f1-73ef-43d5-9039-fccc101c79eb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2567,9 +2516,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4290E48F-9358-41B2-97EA-E74AC621B0EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD819BBA-F06F-4228-BE55-967EAE562949}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="45063566-8adc-4d08-8edf-5c9261df0dbb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="58eb24f1-73ef-43d5-9039-fccc101c79eb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>